--- a/COMM_CAUTION.xlsx
+++ b/COMM_CAUTION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="40" windowWidth="22120" windowHeight="9000"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="24220" windowHeight="12980"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -394,9 +400,15 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -700,7 +712,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K23" sqref="K1:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
